--- a/data/trans_bre/P1414-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1414-Dificultad-trans_bre.xlsx
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.759735710186002</v>
+        <v>2.691347456300338</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.018653148735963</v>
+        <v>3.897736942951781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.533393140641486</v>
+        <v>4.266527469899774</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>3.612693226725327</v>
+        <v>3.217895267234843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.082417721970437</v>
+        <v>1.786317039481549</v>
       </c>
     </row>
     <row r="6">
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.199004052763793</v>
+        <v>5.202418899790816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.825258393633679</v>
+        <v>6.874143588393708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.341609682610843</v>
+        <v>8.20175356979928</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>24.08981544206457</v>
+        <v>20.7039516290637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20.83224957671545</v>
+        <v>19.82911113939898</v>
       </c>
     </row>
     <row r="7">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9989633140456512</v>
+        <v>1.005012440663431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.150806097491228</v>
+        <v>1.156717671956855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.343007868664501</v>
+        <v>3.417673191513497</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.22476914303896</v>
+        <v>1.382433080217671</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8639968810198624</v>
+        <v>0.9522817996810248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.293850893741316</v>
+        <v>2.385815279181755</v>
       </c>
     </row>
     <row r="9">
@@ -742,19 +742,21 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.979802087640163</v>
+        <v>2.927733275521053</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.31151889877972</v>
+        <v>3.349063951335608</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.561441925298405</v>
+        <v>5.581378118533333</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>22.79660679385039</v>
-      </c>
-      <c r="H9" s="6" t="inlineStr"/>
+        <v>25.10211729252292</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>106.8585783108817</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -774,7 +776,7 @@
         <v>2.190440522908927</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.182414404722796</v>
+        <v>3.182414404722795</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>5.199146987746362</v>
@@ -794,22 +796,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.865857037646737</v>
+        <v>0.9058892282498383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.133608546438344</v>
+        <v>1.079117869862915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.393447343869331</v>
+        <v>2.386519989539195</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.7035040525766636</v>
+        <v>0.636147125406521</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.127490429760157</v>
+        <v>0.9080607708549513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7.336540134214702</v>
+        <v>6.354792602604891</v>
       </c>
     </row>
     <row r="12">
@@ -820,19 +822,19 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.945834223848735</v>
+        <v>3.06534044933387</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.613517836483678</v>
+        <v>3.579603277804986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.25445490894563</v>
+        <v>4.155779139806722</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>24.91623914224728</v>
+        <v>24.37224120830337</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>26.87623324772103</v>
+        <v>24.66301612738651</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
     </row>
@@ -854,7 +856,7 @@
         <v>0.8943221964761839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.937319701414786</v>
+        <v>1.937319701414785</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>5.092372332015495</v>
@@ -865,7 +867,7 @@
         </is>
       </c>
       <c r="H13" s="6" t="n">
-        <v>3.837398716704504</v>
+        <v>3.837398716704503</v>
       </c>
     </row>
     <row r="14">
@@ -876,18 +878,18 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2236754599026018</v>
+        <v>0.2294877968236142</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2205559531759763</v>
+        <v>0.2151108892089681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.021798111937565</v>
+        <v>1.137852454259155</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>0.8859520330148133</v>
+        <v>1.104921270172967</v>
       </c>
     </row>
     <row r="15">
@@ -898,18 +900,18 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.603180447523195</v>
+        <v>2.684076382089807</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.137703171857015</v>
+        <v>2.023512611270418</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.885390110651256</v>
+        <v>2.819941140769608</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>12.72960092379263</v>
+        <v>13.03041772021987</v>
       </c>
     </row>
     <row r="16">
@@ -950,22 +952,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.786365388830644</v>
+        <v>1.816049285934164</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.45672901740725</v>
+        <v>2.527131025926528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.213997137672488</v>
+        <v>3.218549549506488</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>5.033868655907809</v>
+        <v>4.674978149159368</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>3.93568863131994</v>
+        <v>4.121415657122059</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>5.000652158771576</v>
+        <v>5.412092043297298</v>
       </c>
     </row>
     <row r="18">
@@ -976,22 +978,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.963611086481558</v>
+        <v>2.964038455659472</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.865263107501381</v>
+        <v>3.841459103626114</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.33421404499253</v>
+        <v>4.332594417168522</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26.84948886407807</v>
+        <v>28.82348027801395</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14.44043056343815</v>
+        <v>15.72747095106216</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18.2913246801699</v>
+        <v>18.31584737026588</v>
       </c>
     </row>
     <row r="19">
